--- a/data/case1/20/Q_device_14.xlsx
+++ b/data/case1/20/Q_device_14.xlsx
@@ -53,35 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.016659784801789923</v>
+        <v>-0.056297471750357576</v>
       </c>
       <c r="B1" s="0">
-        <v>0.016659784730462101</v>
+        <v>0.056297471719789563</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.047980834852097566</v>
+        <v>0.0091274790796969495</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.047980834871996267</v>
+        <v>-0.0091274791439819852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.033668188340104224</v>
+        <v>-0.026666237263525513</v>
       </c>
       <c r="B3" s="0">
-        <v>0.033668188282139126</v>
+        <v>0.026666237222573691</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>-0.016135793659887369</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.016135793603759913</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.057438407269169753</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.057438407332522118</v>
       </c>
     </row>
   </sheetData>
